--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_SEMILLAS_P1_2025.xlsx
@@ -2077,55 +2077,55 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5401010005</t>
+          <t>5104010012</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA VARIADA</t>
+          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>17.9</v>
+        <v>15.98</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>8.27</v>
+        <v>6.53</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>15.3</v>
+        <v>3.1</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>0</v>
@@ -2138,12 +2138,12 @@
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -2153,62 +2153,62 @@
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5105010009</t>
+          <t>5402050010</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
+          <t>TOMATE CHERRY</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>14.98</v>
+        <v>17.72</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>5.62</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>3.1</v>
+        <v>15.3</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -2236,19 +2236,19 @@
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5402050010</t>
+          <t>5404010019</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY</t>
+          <t>PEREJIL GIGANTE D'ITALIA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -2270,10 +2270,10 @@
         <v>10</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>17.72</v>
+        <v>17.63</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>100</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>0</v>
@@ -2326,55 +2326,55 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5404010019</t>
+          <t>5105010009</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL GIGANTE D'ITALIA</t>
+          <t>NARCISSE GRANDE COUPE PINK CHARM 1</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>17.63</v>
+        <v>14.98</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>5.62</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>15.3</v>
+        <v>3.1</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0</v>
@@ -2387,12 +2387,12 @@
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -2402,62 +2402,62 @@
       </c>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5104010012</t>
+          <t>5401010005</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JACINTHE BLEU DE DELFT FDF 15/+ X5</t>
+          <t>CALENDULA VARIADA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>15.98</v>
+        <v>17.9</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>6.53</v>
+        <v>8.27</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>3.1</v>
+        <v>15.3</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>0</v>
@@ -2470,12 +2470,12 @@
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -2749,12 +2749,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5402050014</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE ECOLOGICO</t>
+          <t>PETUNIA PENDULA VARIADA 2011</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -2776,13 +2776,13 @@
         <v>9</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>15.93</v>
+        <v>16.11</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>7.28</v>
+        <v>7.45</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>64.29000000000001</v>
+        <v>90</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>13.7</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>10</v>
@@ -2815,29 +2815,29 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5402050014</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA 2011</t>
+          <t>TOMATE MARMANDE ECOLOGICO</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -2859,13 +2859,13 @@
         <v>9</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>16.11</v>
+        <v>15.93</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>7.45</v>
+        <v>7.28</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>90</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -2877,16 +2877,16 @@
         <v>13.7</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>10</v>
@@ -2898,17 +2898,17 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3504,12 +3504,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5101010002</t>
+          <t>5103010004</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
+          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -3531,10 +3531,10 @@
         <v>2</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>10.98</v>
+        <v>11.98</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>4.36</v>
+        <v>5.27</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>40</v>
@@ -3587,12 +3587,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5103010004</t>
+          <t>5101010002</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 12 UDS</t>
+          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -3614,10 +3614,10 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>11.98</v>
+        <v>10.98</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>5.27</v>
+        <v>4.36</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>40</v>
@@ -3670,12 +3670,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5401010007</t>
+          <t>5404010020</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA ENANA VARIADA</t>
+          <t>ROMERO COMUN</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -3703,7 +3703,7 @@
         <v>5.79</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>70</v>
+        <v>116.67</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -3715,50 +3715,50 @@
         <v>10.7</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T38" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T38" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402020010</t>
+          <t>5401010007</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>PEPINO BELLPUIG LARGO VERDE</t>
+          <t>CAPUCHINA ENANA VARIADA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -3780,13 +3780,13 @@
         <v>7</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>12.35</v>
+        <v>12.53</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>5.63</v>
+        <v>5.79</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>77.78</v>
+        <v>70</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -3798,16 +3798,16 @@
         <v>10.7</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S39" s="5" t="n">
         <v>10</v>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -3919,12 +3919,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5404010020</t>
+          <t>5402020010</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>ROMERO COMUN</t>
+          <t>PEPINO BELLPUIG LARGO VERDE</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -3946,13 +3946,13 @@
         <v>7</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>12.53</v>
+        <v>12.35</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>5.79</v>
+        <v>5.63</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>116.67</v>
+        <v>77.78</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -3964,38 +3964,38 @@
         <v>10.7</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4251,12 +4251,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5402090016</t>
+          <t>5401010019</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>FRESON ALEXANDRIA</t>
+          <t>GIRASOL ORNAMENTAL 2011</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -4284,7 +4284,7 @@
         <v>4.96</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
@@ -4296,50 +4296,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T45" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T45" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5404010010</t>
+          <t>5402090016</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>HIERBA PARA GATOS</t>
+          <t>FRESON ALEXANDRIA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -4361,13 +4361,13 @@
         <v>6</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>46.15</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -4379,16 +4379,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>10</v>
@@ -4400,29 +4400,29 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5404010017</t>
+          <t>5401010030</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN DE HOJA LISA</t>
+          <t>ZINNIA FLOR DE DALIA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -4450,7 +4450,7 @@
         <v>4.96</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>26.09</v>
+        <v>100</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -4462,38 +4462,38 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T47" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T47" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -4666,12 +4666,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5401010030</t>
+          <t>5404010010</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ZINNIA FLOR DE DALIA</t>
+          <t>HIERBA PARA GATOS</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -4693,13 +4693,13 @@
         <v>6</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>100</v>
+        <v>46.15</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -4711,50 +4711,50 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T50" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5401010019</t>
+          <t>5404010017</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>GIRASOL ORNAMENTAL 2011</t>
+          <t>PEREJIL COMUN DE HOJA LISA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -4782,7 +4782,7 @@
         <v>4.96</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>100</v>
+        <v>26.09</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -4794,38 +4794,38 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T51" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5247,178 +5247,178 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5402050015</t>
+          <t>5104010011</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE RAF</t>
+          <t>JACINTHE JAN BOS FDF 15/+ X5</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>4.14</v>
+        <v>3.26</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>71.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N57" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T57" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T57" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>5104010011</t>
+          <t>5402050015</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>JACINTHE JAN BOS FDF 15/+ X5</t>
+          <t>TOMATE MARMANDE RAF</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>7.99</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>3.26</v>
+        <v>4.14</v>
       </c>
       <c r="K58" s="4" t="n">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="N58" s="5" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T58" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5401010004</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE NOCHE</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -5446,7 +5446,7 @@
         <v>4.19</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>83.33</v>
+        <v>100</v>
       </c>
       <c r="L59" s="4" t="n">
         <v>0</v>
@@ -5458,50 +5458,50 @@
         <v>7.6</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T59" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T59" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5402050018</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>TOMATE ROMA</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -5529,7 +5529,7 @@
         <v>4.19</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>100</v>
+        <v>26.32</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>0</v>
@@ -5541,50 +5541,50 @@
         <v>7.6</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T60" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>5402050018</t>
+          <t>5401010006</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>TOMATE ROMA</t>
+          <t>CAMPANULA DOBLE, VARIADA 2011</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
@@ -5612,7 +5612,7 @@
         <v>4.19</v>
       </c>
       <c r="K61" s="4" t="n">
-        <v>26.32</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L61" s="4" t="n">
         <v>0</v>
@@ -5624,10 +5624,10 @@
         <v>7.6</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="4" t="n">
         <v>59</v>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -5655,19 +5655,19 @@
       </c>
       <c r="W61" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5401010004</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+          <t>BELLA DE NOCHE</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -5695,7 +5695,7 @@
         <v>4.19</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>71.43000000000001</v>
+        <v>83.33</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
@@ -5707,10 +5707,10 @@
         <v>7.6</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q62" s="4" t="n">
         <v>59</v>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -5738,90 +5738,90 @@
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>5401010009</t>
+          <t>5102070004</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL DE POETA</t>
+          <t>DAHLIA POMPON MEZCLADO 1/2 4 UDS</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
       <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>4.34</v>
+        <v>2.06</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>83.33</v>
+        <v>4</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N63" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T63" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T63" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 1416 días.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5991,95 +5991,95 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5102070004</t>
+          <t>5404010011</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON MEZCLADO 1/2 4 UDS</t>
+          <t>HIERBABUENA</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
         <v>60</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.45</v>
+        <v>8.41</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.06</v>
+        <v>3.85</v>
       </c>
       <c r="K2" s="4" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N2" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>24</v>
-      </c>
       <c r="P2" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T2" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 1416 días.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5404010011</t>
+          <t>5401010009</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>HIERBABUENA</t>
+          <t>CLAVEL DE POETA</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -6101,13 +6101,13 @@
         <v>5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.41</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.85</v>
+        <v>4.34</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>55.56</v>
+        <v>83.33</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -6119,10 +6119,10 @@
         <v>7.6</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -6240,12 +6240,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5402050011</t>
+          <t>5402050004</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CORAZÓN DE BUEY 2017</t>
+          <t>PIMIENTO DULCE ITALIANO ECOL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
         <v>3.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>33.33</v>
+        <v>100</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -6285,50 +6285,50 @@
         <v>6.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T5" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T5" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5401010016</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON 2011</t>
+          <t>ESTATICE VARIADA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -6350,13 +6350,13 @@
         <v>4</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>80</v>
+        <v>44.44</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -6368,7 +6368,7 @@
         <v>6.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>3</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -6399,19 +6399,19 @@
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5404010012</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>LAVANDA OFFICINALIS</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -6433,13 +6433,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>57.14</v>
+        <v>40</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -6451,16 +6451,16 @@
         <v>6.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>10</v>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -6489,12 +6489,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5401010016</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ESTATICE VARIADA</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -6516,13 +6516,13 @@
         <v>4</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>44.44</v>
+        <v>57.14</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -6534,10 +6534,10 @@
         <v>6.1</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>59</v>
@@ -6572,12 +6572,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5404010012</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>LAVANDA OFFICINALIS</t>
+          <t>ESPARRAGO MARY WASHINGTON 2011</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -6599,13 +6599,13 @@
         <v>4</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -6617,16 +6617,16 @@
         <v>6.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>10</v>
@@ -6638,29 +6638,29 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402050004</t>
+          <t>5402050011</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO ECOL</t>
+          <t>TOMATE CORAZÓN DE BUEY 2017</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>3.31</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>100</v>
+        <v>33.33</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -6700,38 +6700,38 @@
         <v>6.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T10" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6821,12 +6821,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -6848,13 +6848,13 @@
         <v>4</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>0</v>
+        <v>36.36</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -6866,50 +6866,50 @@
         <v>6.1</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T12" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5401010033</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>STRELITZIA AVE DEL PARAISO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -6931,13 +6931,13 @@
         <v>4</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>36.36</v>
+        <v>80</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -6949,10 +6949,10 @@
         <v>6.1</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>59</v>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -7070,12 +7070,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5401010033</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>STRELITZIA AVE DEL PARAISO</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -7103,7 +7103,7 @@
         <v>3.35</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -7115,38 +7115,38 @@
         <v>6.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T15" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T15" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -7402,12 +7402,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -7429,10 +7429,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>6.99</v>
+        <v>5.49</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>3.54</v>
+        <v>2.18</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>20</v>
@@ -7450,7 +7450,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>10</v>
@@ -7485,12 +7485,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
+          <t>ANEMONA DE CAEN MEZCLADO 7/8 15UDS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -7512,10 +7512,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>5.49</v>
+        <v>6.99</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>2.18</v>
+        <v>3.54</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>20</v>
@@ -7533,7 +7533,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>10</v>
@@ -7651,12 +7651,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5107130001</t>
+          <t>5102090002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
+          <t>DAHLIA BALLE GENOVA I X1</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -7678,10 +7678,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>5.39</v>
+        <v>4.45</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>2.46</v>
+        <v>1.61</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>20</v>
@@ -7699,7 +7699,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>10</v>
@@ -7734,12 +7734,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5102090002</t>
+          <t>5107130001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA BALLE GENOVA I X1</t>
+          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -7761,10 +7761,10 @@
         <v>1</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>4.45</v>
+        <v>5.39</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>1.61</v>
+        <v>2.46</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>20</v>
@@ -7782,7 +7782,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>10</v>
@@ -7817,12 +7817,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5402030004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>RABANITO REDONDO ROJO</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -7850,7 +7850,7 @@
         <v>2.48</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>50</v>
+        <v>42.86</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -7862,10 +7862,10 @@
         <v>4.6</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>59</v>
@@ -7900,12 +7900,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5401010025</t>
+          <t>5401010027</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA DOBLE VARIADA</t>
+          <t>SALVIA ENANA ROJA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -7933,7 +7933,7 @@
         <v>2.48</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -7945,50 +7945,50 @@
         <v>4.6</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T25" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5401010015</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>DALIA DECORATIVA, VARIADA 2011</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -8010,10 +8010,10 @@
         <v>3</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="K26" s="4" t="n">
         <v>100</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -8059,19 +8059,19 @@
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5402030004</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -8099,7 +8099,7 @@
         <v>2.48</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>42.86</v>
+        <v>75</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -8111,10 +8111,10 @@
         <v>4.6</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>59</v>
@@ -8132,7 +8132,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -8142,19 +8142,19 @@
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5401010025</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>PETUNIA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -8182,7 +8182,7 @@
         <v>2.48</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -8194,50 +8194,50 @@
         <v>4.6</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T28" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T28" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>REPOSICIÓN PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 25%. Stock objetivo: 1 unidades. Programar reposición para próxima semana.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13B</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5402020016</t>
+          <t>5404010009</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT ECO</t>
+          <t>ENELDO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -8259,13 +8259,13 @@
         <v>3</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -8277,10 +8277,10 @@
         <v>4.6</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>59</v>
@@ -8315,12 +8315,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5404010009</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ENELDO</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -8342,13 +8342,13 @@
         <v>3</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>5.1</v>
+        <v>5.34</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>2.24</v>
+        <v>2.45</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -8360,50 +8360,50 @@
         <v>4.6</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T30" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T30" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5401010027</t>
+          <t>5402020016</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>SALVIA ENANA ROJA</t>
+          <t>CALABAZA BUTTERNUT ECO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -8431,7 +8431,7 @@
         <v>2.48</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -8443,10 +8443,10 @@
         <v>4.6</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>59</v>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -8474,19 +8474,19 @@
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5401010015</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>DALIA DECORATIVA, VARIADA 2011</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -8514,7 +8514,7 @@
         <v>2.48</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -8526,50 +8526,50 @@
         <v>4.6</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5402060003</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>GUISANTE RONDO ECO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -8597,7 +8597,7 @@
         <v>2.51</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -8609,10 +8609,10 @@
         <v>4.6</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="4" t="n">
         <v>0</v>
@@ -8625,12 +8625,12 @@
       </c>
       <c r="T33" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -8640,19 +8640,19 @@
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5402090022</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>REMOLACHA DE MESA ROJA</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -8680,7 +8680,7 @@
         <v>2.51</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -8692,10 +8692,10 @@
         <v>4.6</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>59</v>
@@ -8730,12 +8730,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5402090022</t>
+          <t>5402020001</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>REMOLACHA DE MESA ROJA</t>
+          <t>CALABACIN DE MESA NEGRO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -8763,7 +8763,7 @@
         <v>2.51</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -8775,50 +8775,50 @@
         <v>4.6</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T35" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T35" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402050002</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -8846,7 +8846,7 @@
         <v>2.51</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -8858,50 +8858,50 @@
         <v>4.6</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T36" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402060003</t>
+          <t>5402050002</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>GUISANTE RONDO ECO</t>
+          <t>PIMIENTO BLOCKY AMARILLO 2019</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -8929,7 +8929,7 @@
         <v>2.51</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -8941,50 +8941,50 @@
         <v>4.6</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T37" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402050009</t>
+          <t>5402020007</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>MELON ROCHET</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -9012,7 +9012,7 @@
         <v>2.51</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>4.6</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>59</v>
@@ -9145,12 +9145,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402020007</t>
+          <t>5402050009</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>MELON ROCHET</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -9178,7 +9178,7 @@
         <v>2.51</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -9190,10 +9190,10 @@
         <v>4.6</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>59</v>
@@ -9228,12 +9228,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402020001</t>
+          <t>5401010035</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CALABACIN DE MESA NEGRO</t>
+          <t>PORTULACA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -9261,7 +9261,7 @@
         <v>2.51</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>100</v>
+        <v>37.5</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -9273,50 +9273,50 @@
         <v>4.6</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5401010035</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA DOBLE VARIADA</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -9344,7 +9344,7 @@
         <v>2.51</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
@@ -9356,10 +9356,10 @@
         <v>4.6</v>
       </c>
       <c r="O42" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" s="4" t="n">
         <v>5</v>
-      </c>
-      <c r="P42" s="4" t="n">
-        <v>16</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>59</v>
@@ -9394,12 +9394,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5402090007</t>
+          <t>5402040009</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA DULCE DE FUENTES 2019</t>
+          <t>LECHUGA ROMANA LARGA RUBIA ECO</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -9421,13 +9421,13 @@
         <v>3</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>27.27</v>
+        <v>30</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>0</v>
@@ -9439,10 +9439,10 @@
         <v>4.6</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>59</v>
@@ -9477,12 +9477,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5402040009</t>
+          <t>5402090007</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ROMANA LARGA RUBIA ECO</t>
+          <t>CEBOLLA DULCE DE FUENTES 2019</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -9504,13 +9504,13 @@
         <v>3</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>30</v>
+        <v>27.27</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>0</v>
@@ -9522,10 +9522,10 @@
         <v>4.6</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>59</v>
@@ -9726,12 +9726,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5102010003</t>
+          <t>5102070005</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
+          <t>DAHLIA POMPON OKAPI I X1</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -9753,10 +9753,10 @@
         <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>5.99</v>
+        <v>3.5</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>3.51</v>
+        <v>1.24</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>20</v>
@@ -9774,7 +9774,7 @@
         <v>4</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>10</v>
@@ -9809,12 +9809,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5107040000</t>
+          <t>5102010003</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CANNA ENANA FV ZUMBA</t>
+          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -9836,10 +9836,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>4.29</v>
+        <v>5.99</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.96</v>
+        <v>3.51</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>20</v>
@@ -9892,12 +9892,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5102070005</t>
+          <t>5107040000</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON OKAPI I X1</t>
+          <t>CANNA ENANA FV ZUMBA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -9919,10 +9919,10 @@
         <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>3.5</v>
+        <v>4.29</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>20</v>
@@ -9940,7 +9940,7 @@
         <v>4</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>10</v>
@@ -10141,12 +10141,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5401010022</t>
+          <t>5404010008</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA GRANDE BLANCA</t>
+          <t>CILANTRO</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -10174,7 +10174,7 @@
         <v>1.65</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="L52" s="4" t="n">
         <v>0</v>
@@ -10186,16 +10186,16 @@
         <v>3.1</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S52" s="5" t="n">
         <v>10</v>
@@ -10207,29 +10207,29 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5402050006</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO HABANERO ROJO 2019</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -10257,7 +10257,7 @@
         <v>1.65</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>20</v>
+        <v>66.67</v>
       </c>
       <c r="L53" s="4" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>3.1</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>59</v>
@@ -10290,7 +10290,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -10300,19 +10300,19 @@
       </c>
       <c r="W53" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5401030003</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -10340,7 +10340,7 @@
         <v>1.65</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>28.57</v>
+        <v>22.22</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>3.1</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>59</v>
@@ -10390,12 +10390,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5404010008</t>
+          <t>5401030003</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CILANTRO</t>
+          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -10423,7 +10423,7 @@
         <v>1.65</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>20</v>
+        <v>28.57</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -10435,16 +10435,16 @@
         <v>3.1</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S55" s="5" t="n">
         <v>10</v>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -10473,12 +10473,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5402050006</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>PIMIENTO HABANERO ROJO 2019</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -10506,7 +10506,7 @@
         <v>1.65</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>22.22</v>
+        <v>20</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
@@ -10518,10 +10518,10 @@
         <v>3.1</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>59</v>
@@ -10556,12 +10556,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5402030005</t>
+          <t>5402040002</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO ECOL</t>
+          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -10583,13 +10583,13 @@
         <v>2</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>40</v>
+        <v>4.26</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>3.1</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>59</v>
@@ -10802,12 +10802,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5401010020</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -10835,7 +10835,7 @@
         <v>1.67</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.52</v>
+        <v>66.67</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0</v>
@@ -10847,10 +10847,10 @@
         <v>3.1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>59</v>
@@ -10868,7 +10868,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -10878,19 +10878,19 @@
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5402080005</t>
+          <t>5402090001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>JUDIA PEROLAR 35GR</t>
+          <t>ACELGA VERDE PENCA BLANCA</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -10912,13 +10912,13 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>40</v>
+        <v>22.22</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -10930,10 +10930,10 @@
         <v>3.1</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -10968,12 +10968,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5402020012</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -11001,7 +11001,7 @@
         <v>1.67</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>22.22</v>
+        <v>13.33</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -11013,10 +11013,10 @@
         <v>3.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -11051,12 +11051,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5404010023</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>TOMILLO</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -11084,7 +11084,7 @@
         <v>1.67</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>33.33</v>
+        <v>10</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -11096,10 +11096,10 @@
         <v>3.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>59</v>
@@ -11134,12 +11134,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5402020013</t>
+          <t>5402040008</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>SANDIA CRIMSON SWEET ECOLOG</t>
+          <t>LECHUGA REINA DE MAYO ECO</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -11167,7 +11167,7 @@
         <v>1.67</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>18.18</v>
+        <v>10</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -11179,10 +11179,10 @@
         <v>3.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>59</v>
@@ -11217,12 +11217,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5401010036</t>
+          <t>5402020012</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
+          <t>PEPINO SMR-58 PEPINILLO ENCURTIR 2011</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -11250,7 +11250,7 @@
         <v>1.67</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>20</v>
+        <v>22.22</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -11262,10 +11262,10 @@
         <v>3.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>59</v>
@@ -11300,12 +11300,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402090018</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>MAIZ PALOMITAS</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -11327,13 +11327,13 @@
         <v>2</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>66.67</v>
+        <v>15.38</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -11345,10 +11345,10 @@
         <v>3.1</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>59</v>
@@ -11366,7 +11366,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado. Continuar monitoreo.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -11376,19 +11376,19 @@
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402090001</t>
+          <t>5401010036</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ACELGA VERDE PENCA BLANCA</t>
+          <t>MEZCLA DE FLORES PARDO JAPONES VARIADA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -11416,7 +11416,7 @@
         <v>1.67</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>22.22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -11428,10 +11428,10 @@
         <v>3.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>59</v>
@@ -11466,12 +11466,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402040005</t>
+          <t>5404010023</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA RED SALAD BALL 2011</t>
+          <t>TOMILLO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -11499,7 +11499,7 @@
         <v>1.67</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>20</v>
+        <v>33.33</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -11511,10 +11511,10 @@
         <v>3.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>59</v>
@@ -11549,12 +11549,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -11582,7 +11582,7 @@
         <v>1.67</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>13.33</v>
+        <v>33.33</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -11594,10 +11594,10 @@
         <v>3.1</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>59</v>
@@ -11632,12 +11632,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5402040002</t>
+          <t>5402030005</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA GRANDES LAGOS -CALIFORNIA</t>
+          <t>RABANITO REDONDO ROJO ECOL</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -11659,13 +11659,13 @@
         <v>2</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>4.26</v>
+        <v>40</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -11677,10 +11677,10 @@
         <v>3.1</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>59</v>
@@ -11715,12 +11715,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402090018</t>
+          <t>5402040005</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MAIZ PALOMITAS</t>
+          <t>LECHUGA RED SALAD BALL 2011</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -11742,13 +11742,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>15.38</v>
+        <v>20</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -11760,10 +11760,10 @@
         <v>3.1</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>59</v>
@@ -11798,12 +11798,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5401010020</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ESCAROLA CABELLO DE ANGEL 2011</t>
+          <t>IMPATIENS VARIADA ALEGRIA DE LA CASA 2011</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -11831,7 +11831,7 @@
         <v>1.67</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>33.33</v>
+        <v>9.52</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -11843,10 +11843,10 @@
         <v>3.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -11881,12 +11881,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5402080005</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>JUDIA PEROLAR 35GR</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -11908,13 +11908,13 @@
         <v>2</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
@@ -11926,10 +11926,10 @@
         <v>3.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -11964,12 +11964,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5402040008</t>
+          <t>5402020013</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA REINA DE MAYO ECO</t>
+          <t>SANDIA CRIMSON SWEET ECOLOG</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -11997,7 +11997,7 @@
         <v>1.67</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>10</v>
+        <v>18.18</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -12009,10 +12009,10 @@
         <v>3.1</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>59</v>
@@ -12130,12 +12130,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5401030001</t>
+          <t>5401030002</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL GIGANTE ROSA PÁLIDO</t>
+          <t>CLAVEL MARGARITA VARIADO 00543</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>0</v>
@@ -12196,7 +12196,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 30%. Stock objetivo: 1 unidades. Monitorear demanda próximas semanas.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -12206,19 +12206,19 @@
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>26B</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5401030002</t>
+          <t>5401030001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL MARGARITA VARIADO 00543</t>
+          <t>CLAVEL GIGANTE ROSA PÁLIDO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>0</v>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>RECOMPRA PRIORITARIA: Producto agotado con demanda reciente. Aumentar compras 30%. Stock objetivo: 1 unidades. Monitorear demanda próximas semanas.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -12289,7 +12289,7 @@
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>26B</t>
         </is>
       </c>
     </row>
@@ -13043,12 +13043,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5402090006</t>
+          <t>5402040003</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
+          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -13076,7 +13076,7 @@
         <v>0.84</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -13088,10 +13088,10 @@
         <v>1.5</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>59</v>
@@ -13126,12 +13126,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5404010004</t>
+          <t>5402020017</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA LIMON 2015</t>
+          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -13159,7 +13159,7 @@
         <v>0.84</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>100</v>
+        <v>11.11</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -13171,50 +13171,50 @@
         <v>1.5</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T30" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5401010034</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -13242,7 +13242,7 @@
         <v>0.84</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -13254,10 +13254,10 @@
         <v>1.5</v>
       </c>
       <c r="O31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4" t="n">
         <v>4</v>
-      </c>
-      <c r="P31" s="4" t="n">
-        <v>27</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>59</v>
@@ -13292,12 +13292,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5401010032</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>GIPSOFILA ELEGANS BLANCA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -13325,7 +13325,7 @@
         <v>0.84</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -13337,16 +13337,16 @@
         <v>1.5</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>10</v>
@@ -13363,7 +13363,7 @@
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -13375,12 +13375,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5402020017</t>
+          <t>5401010034</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO ECO</t>
+          <t>ANTIRRINO ENANO TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -13408,7 +13408,7 @@
         <v>0.84</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>11.11</v>
+        <v>20</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -13420,10 +13420,10 @@
         <v>1.5</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="Q33" s="4" t="n">
         <v>59</v>
@@ -13458,12 +13458,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5401010032</t>
+          <t>5404010004</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>GIPSOFILA ELEGANS BLANCA</t>
+          <t>ALBAHACA LIMON 2015</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -13491,7 +13491,7 @@
         <v>0.84</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -13503,50 +13503,50 @@
         <v>1.5</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T34" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T34" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5402090006</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>CEBOLLA ARBO - MORADA DE AMPOSTA 2011</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -13574,7 +13574,7 @@
         <v>0.84</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>4.76</v>
+        <v>50</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -13586,10 +13586,10 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>59</v>
@@ -13707,12 +13707,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402040003</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA CUATRO ESTACIONES 2011</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -13740,7 +13740,7 @@
         <v>0.84</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>10</v>
+        <v>4.76</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -13752,10 +13752,10 @@
         <v>1.5</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>59</v>
@@ -13790,12 +13790,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5401010021</t>
+          <t>5402020005</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>IPOMEA CAMPANILLA VARIADA</t>
+          <t>CALABAZA BUTTERNUT</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -13823,7 +13823,7 @@
         <v>0.86</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -13835,50 +13835,50 @@
         <v>1.5</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T38" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T38" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5402020005</t>
+          <t>5401010021</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT</t>
+          <t>IPOMEA CAMPANILLA VARIADA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -13906,7 +13906,7 @@
         <v>0.86</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -13918,38 +13918,38 @@
         <v>1.5</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0</v>
+        <v>98.33</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>10</v>
+      </c>
+      <c r="T39" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -14368,24 +14368,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -14413,19 +14413,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -14434,12 +14434,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14451,12 +14451,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5102020013</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
+          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -14534,12 +14534,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -14617,24 +14617,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5404010021</t>
+          <t>5102040001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>SALVIA OFFICINALIS</t>
+          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -14662,19 +14662,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -14683,12 +14683,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14700,12 +14700,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5107010002</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -14783,24 +14783,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402010002</t>
+          <t>5102020019</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>COL BRUSELAS MEDIO ENANA</t>
+          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -14828,19 +14828,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
@@ -14849,12 +14849,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -14866,12 +14866,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5102020012</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
+          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -14949,24 +14949,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5404010021</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
+          <t>SALVIA OFFICINALIS</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -14994,19 +14994,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -15015,12 +15015,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15032,32 +15032,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5401010031</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GERANIO ZONALE VARIADO</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr"/>
+      <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -15085,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -15106,7 +15098,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -15123,16 +15115,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -15168,16 +15168,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S11" s="5" t="n">
         <v>10</v>
@@ -15189,12 +15189,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15206,12 +15206,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5103010003</t>
+          <t>5102020013</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+          <t>DAHLIA DECORATIVA ENANA JAMAICA I X1</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -15289,24 +15289,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5301010003</t>
+          <t>5402030001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
+          <t>NABO DE MESA VIRTUDES MARTILLO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -15334,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -15355,7 +15355,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -15372,24 +15372,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5402010003</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
+          <t>COL RIZADA KALE 2017</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -15417,19 +15417,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
@@ -15438,12 +15438,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -15455,12 +15455,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5102040000</t>
+          <t>5102050000</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
+          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -15538,24 +15538,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5102020012</t>
+          <t>5307010005</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA LE THOUREIL I X1</t>
+          <t>SEMILLAS REPOBLADORAS 1 KG</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -15583,19 +15583,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
@@ -15604,12 +15604,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -15621,24 +15621,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5402010002</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+          <t>COL BRUSELAS MEDIO ENANA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -15666,19 +15666,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
@@ -15687,12 +15687,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -15704,24 +15704,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5404010018</t>
+          <t>5107010002</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL DOBLE RIZADO 2011</t>
+          <t>AMARYLLIS BELLADONNA 20/+ X1</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -15749,19 +15749,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -15770,12 +15770,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -15787,24 +15787,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5102020015</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
+          <t>CEBOLLINO ANUAL 2011</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -15838,13 +15838,13 @@
         <v>59</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -15853,12 +15853,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -15870,12 +15870,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5102040001</t>
+          <t>5103030000</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA DOBLE MEZCLADO I/II X4</t>
+          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -15953,24 +15953,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5107190005</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>COL BRUNSWICK TENTA</t>
+          <t>ARUM FORET NEGRO 14+1 UDS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -15998,19 +15998,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
@@ -16019,12 +16019,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -16036,24 +16036,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5404010002</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA GIGANTE</t>
+          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -16081,19 +16081,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T22" s="8" t="inlineStr">
         <is>
@@ -16102,12 +16102,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -16119,32 +16119,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5301010003</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>60G</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SEMILLAS CESPED RESISTENTE 1KG</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+      <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16178,10 +16170,10 @@
         <v>59</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S23" s="5" t="n">
         <v>10</v>
@@ -16193,12 +16185,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -16210,24 +16202,32 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5402080002</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ENANA 250GR</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -16255,16 +16255,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S24" s="5" t="n">
         <v>10</v>
@@ -16276,12 +16276,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16293,24 +16293,32 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5402010003</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>COL RIZADA KALE 2017</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>1Kg</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -16338,7 +16346,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
@@ -16359,7 +16367,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -16376,24 +16384,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5102020014</t>
+          <t>5402080001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA PAYASO I X1</t>
+          <t>JUDÍA EFEQUINCE</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -16421,19 +16429,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T26" s="8" t="inlineStr">
         <is>
@@ -16442,12 +16450,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -16459,12 +16467,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
+          <t>CESPED FORMULA SOMBRA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -16512,16 +16520,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>10</v>
@@ -16533,12 +16541,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -16550,12 +16558,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5102020015</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -16633,24 +16641,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>HABA HISTAL</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -16678,19 +16686,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T29" s="8" t="inlineStr">
         <is>
@@ -16699,12 +16707,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -16716,24 +16724,24 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5102020010</t>
+          <t>5402080003</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
+          <t>JUDIA GARRAFAL ORO-VELEZ</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -16767,13 +16775,13 @@
         <v>59</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T30" s="8" t="inlineStr">
         <is>
@@ -16782,12 +16790,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -16799,24 +16807,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5402080001</t>
+          <t>5102070006</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>JUDÍA EFEQUINCE</t>
+          <t>DAHLIA POMPON ASHADO X1</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -16844,19 +16852,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T31" s="8" t="inlineStr">
         <is>
@@ -16865,12 +16873,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -16882,24 +16890,24 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402030001</t>
+          <t>5103010003</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>NABO DE MESA VIRTUDES MARTILLO</t>
+          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -16933,13 +16941,13 @@
         <v>59</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
@@ -16948,12 +16956,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -16965,24 +16973,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5401010001</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>AMAPOLA DOBLE VARIADA</t>
+          <t>FREESIA SIMPLE MEZCLADO 5+ 15UDS</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -17010,19 +17018,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T33" s="8" t="inlineStr">
         <is>
@@ -17031,12 +17039,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -17048,24 +17056,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>5402090029</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -17093,19 +17101,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T34" s="8" t="inlineStr">
         <is>
@@ -17114,12 +17122,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -17131,24 +17139,24 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>5402080003</t>
+          <t>5103020000</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>JUDIA GARRAFAL ORO-VELEZ</t>
+          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -17176,19 +17184,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T35" s="8" t="inlineStr">
         <is>
@@ -17197,12 +17205,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -17214,24 +17222,32 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5301010002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SPARRING</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -17259,16 +17275,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>10</v>
@@ -17280,12 +17296,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17297,32 +17313,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>1Kg</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ALCACHOFA TALPIOT 2011</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -17350,16 +17358,16 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>98.33</v>
+        <v>83.33</v>
       </c>
       <c r="S37" s="5" t="n">
         <v>10</v>
@@ -17371,12 +17379,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 74.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -17388,24 +17396,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5103030000</t>
+          <t>5402050020</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
+          <t>BERENJENA LARGA NEGRA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -17433,19 +17441,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T38" s="8" t="inlineStr">
         <is>
@@ -17454,12 +17462,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -17471,12 +17479,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5107170001</t>
+          <t>5102040000</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
+          <t>DAHLIA ENANA DOBLE MACARON I X1 FDF</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -17554,12 +17562,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5102050000</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ENANA SIMPLE MEZCLADO I/II X4</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -17637,24 +17645,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
+          <t>COL BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17682,19 +17690,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T41" s="8" t="inlineStr">
         <is>
@@ -17703,12 +17711,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -17720,24 +17728,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>5107190005</t>
+          <t>5404010018</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>ARUM FORET NEGRO 14+1 UDS</t>
+          <t>PEREJIL DOBLE RIZADO 2011</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17765,19 +17773,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T42" s="8" t="inlineStr">
         <is>
@@ -17786,12 +17794,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -17886,24 +17894,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5401010001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>AMAPOLA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -17931,19 +17939,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T44" s="8" t="inlineStr">
         <is>
@@ -17952,12 +17960,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -17969,24 +17977,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5101010003</t>
+          <t>5402080002</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
+          <t>JUDIA GARRAFAL ENANA 250GR</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18014,19 +18022,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T45" s="8" t="inlineStr">
         <is>
@@ -18035,12 +18043,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18052,12 +18060,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -18135,24 +18143,16 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5402090029</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MAIZ DULCE GOLDEN BANTAAM ECO</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+      <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -18188,16 +18188,16 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>83.33</v>
+        <v>98.33</v>
       </c>
       <c r="S47" s="5" t="n">
         <v>10</v>
@@ -18209,12 +18209,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -18226,24 +18226,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5402050020</t>
+          <t>5107170001</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA</t>
+          <t>IXIA MACULATA MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18271,19 +18271,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T48" s="8" t="inlineStr">
         <is>
@@ -18292,12 +18292,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -18309,24 +18309,32 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5102020019</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr"/>
-      <c r="D49" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>60G</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -18354,19 +18362,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>16.67</v>
+        <v>83.33</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T49" s="8" t="inlineStr">
         <is>
@@ -18375,12 +18383,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 09/01/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -18392,24 +18400,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5302010001</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPORT</t>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -18437,19 +18445,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T50" s="8" t="inlineStr">
         <is>
@@ -18458,12 +18466,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -18475,24 +18483,24 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5307010005</t>
+          <t>5107190013</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>SEMILLAS REPOBLADORAS 1 KG</t>
+          <t>ARUM MAJESTIC RED 14/+ X1</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -18520,19 +18528,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T51" s="8" t="inlineStr">
         <is>
@@ -18541,12 +18549,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.19€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -18558,12 +18566,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5401010031</t>
+          <t>5404010002</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>GERANIO ZONALE VARIADO</t>
+          <t>ALBAHACA GIGANTE</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -18603,7 +18611,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
@@ -18624,7 +18632,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -18641,24 +18649,24 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -18686,19 +18694,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>98.33</v>
+        <v>16.67</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T53" s="8" t="inlineStr">
         <is>
@@ -18707,12 +18715,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -18724,32 +18732,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5301010002</t>
+          <t>5107100001</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SPARRING</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr"/>
+      <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18777,19 +18777,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T54" s="8" t="inlineStr">
         <is>
@@ -18798,12 +18798,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/01/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -18815,12 +18815,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5107190013</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ARUM MAJESTIC RED 14/+ X1</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -18898,12 +18898,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5101010003</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 3 UDS</t>
+          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -18981,24 +18981,24 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5103020000</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO COLVILLEI MEZCLADO 8/9 X7</t>
+          <t>JUDIA HELDA ECO</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -19026,19 +19026,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T57" s="8" t="inlineStr">
         <is>
@@ -19047,12 +19047,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -19064,24 +19064,24 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>5102070006</t>
+          <t>5302010001</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON ASHADO X1</t>
+          <t>CESPED FORMULA SPORT</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -19109,19 +19109,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>16.67</v>
+        <v>98.33</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T58" s="8" t="inlineStr">
         <is>
@@ -19130,12 +19130,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -19147,12 +19147,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5102020014</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 3 UDS</t>
+          <t>DAHLIA DECORATIVA PAYASO I X1</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -19230,12 +19230,12 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5107100001</t>
+          <t>5102020010</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>FREESIA DOBLE MEZCLADO 5+ 15 UDS</t>
+          <t>DAHLIA DECORATIVA TIERRA BOTANICA FDF I X1</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
